--- a/data/DummyDataToTestADOMigration.xlsx
+++ b/data/DummyDataToTestADOMigration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42fafbcdeaaed13a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{CC91BF6D-5AF8-4F89-AC23-D9C9E5CDFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D9D5F96-DC1B-46CD-B9BB-94B823268F76}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{CC91BF6D-5AF8-4F89-AC23-D9C9E5CDFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE8B741-6D44-4B4E-A752-0DF214779F8C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5E65A4F-2F6A-4AB2-B9AF-D71F14065CA9}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>rudra_test</t>
   </si>
   <si>
-    <t>Tes</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/DummyDataToTestADOMigration.xlsx
+++ b/data/DummyDataToTestADOMigration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42fafbcdeaaed13a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{CC91BF6D-5AF8-4F89-AC23-D9C9E5CDFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE8B741-6D44-4B4E-A752-0DF214779F8C}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{CC91BF6D-5AF8-4F89-AC23-D9C9E5CDFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82E75111-01A5-44F3-BC26-7863B9E76F03}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5E65A4F-2F6A-4AB2-B9AF-D71F14065CA9}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>rudra_test</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Test-name</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/DummyDataToTestADOMigration.xlsx
+++ b/data/DummyDataToTestADOMigration.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -416,16 +417,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -441,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -449,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
